--- a/xlsx/SOL_Arch.xlsx
+++ b/xlsx/SOL_Arch.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -38,7 +38,7 @@
     <t>c4Application</t>
   </si>
   <si>
-    <t>-_cdvQayPMqrRb-iDRBa-2</t>
+    <t>CPXxz_ISOKLF317-wNIe-1</t>
   </si>
   <si>
     <t>Пользователь</t>
@@ -50,19 +50,19 @@
     <t>Сотрудники ГК МТС</t>
   </si>
   <si>
-    <t>-_cdvQayPMqrRb-iDRBa-3</t>
-  </si>
-  <si>
-    <t>External System</t>
+    <t>CPXxz_ISOKLF317-wNIe-2</t>
+  </si>
+  <si>
+    <t>Product Factory</t>
   </si>
   <si>
     <t>Software System</t>
   </si>
   <si>
-    <t>Различные системы ИТ-ландшафта МТС</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-4</t>
+    <t>Фабрика продуктов</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-3</t>
   </si>
   <si>
     <t>Database Entities SOL</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">Container </t>
   </si>
   <si>
-    <t>Microsoft SQL Server</t>
-  </si>
-  <si>
-    <t>Хранение описания сущностей</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-5</t>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Описание ИС</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-4</t>
   </si>
   <si>
     <t>FrontEnd SOL</t>
@@ -92,7 +92,7 @@
     <t>Портал Solution Library</t>
   </si>
   <si>
-    <t>-_cdvQayPMqrRb-iDRBa-6</t>
+    <t>CPXxz_ISOKLF317-wNIe-5</t>
   </si>
   <si>
     <t>BackEnd REST API SOL</t>
@@ -101,40 +101,22 @@
     <t>C#, .Net Core</t>
   </si>
   <si>
-    <t>Ядро SOL для WebUI</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-7</t>
-  </si>
-  <si>
-    <t>Управление знаниями</t>
+    <t>Классическое REST API</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-7</t>
+  </si>
+  <si>
+    <t>Solution Library</t>
   </si>
   <si>
     <t>SystemScopeBoundary</t>
   </si>
   <si>
-    <t>Business Capability</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-8</t>
-  </si>
-  <si>
-    <t>Solution Library</t>
-  </si>
-  <si>
     <t>System</t>
   </si>
   <si>
-    <t>-_cdvQayPMqrRb-iDRBa-13</t>
-  </si>
-  <si>
-    <t>Master Product Catalogue</t>
-  </si>
-  <si>
-    <t>Продуктовый каталог ГК МТС</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-14</t>
+    <t>CPXxz_ISOKLF317-wNIe-13</t>
   </si>
   <si>
     <t>Internal SSO</t>
@@ -143,7 +125,7 @@
     <t>Централизованная система авторизации</t>
   </si>
   <si>
-    <t>-_cdvQayPMqrRb-iDRBa-15</t>
+    <t>CPXxz_ISOKLF317-wNIe-14</t>
   </si>
   <si>
     <t>POWER BI</t>
@@ -152,25 +134,34 @@
     <t>Предоставление отчетности</t>
   </si>
   <si>
-    <t>-_cdvQayPMqrRb-iDRBa-16</t>
-  </si>
-  <si>
-    <t>IMS</t>
-  </si>
-  <si>
-    <t>Inventory Management System</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-27</t>
-  </si>
-  <si>
-    <t>Автоматизированный сбор знаний</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-31</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-32</t>
+    <t>CPXxz_ISOKLF317-wNIe-20</t>
+  </si>
+  <si>
+    <t>BackEnd GraphQL SOL</t>
+  </si>
+  <si>
+    <t>Apollo GraphQL</t>
+  </si>
+  <si>
+    <t>Новое ядро SOL</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-25</t>
+  </si>
+  <si>
+    <t>Util SOL</t>
+  </si>
+  <si>
+    <t>Утилита загрузки данных из исходного кода</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-30</t>
+  </si>
+  <si>
+    <t>Архитектор</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-31</t>
   </si>
   <si>
     <t>Enterprise Architect</t>
@@ -179,7 +170,7 @@
     <t>Система проектирования</t>
   </si>
   <si>
-    <t>-_cdvQayPMqrRb-iDRBa-33</t>
+    <t>CPXxz_ISOKLF317-wNIe-32</t>
   </si>
   <si>
     <t>PlugIn SOL</t>
@@ -188,34 +179,28 @@
     <t>Плагин SOL для EA</t>
   </si>
   <si>
-    <t>-_cdvQayPMqrRb-iDRBa-43</t>
-  </si>
-  <si>
-    <t>RMS</t>
-  </si>
-  <si>
-    <t>Resource Management System</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-44</t>
-  </si>
-  <si>
-    <t>OBS</t>
-  </si>
-  <si>
-    <t>Observability Platform (платформа наблюдаемости)</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-45</t>
-  </si>
-  <si>
-    <t>JIRA</t>
-  </si>
-  <si>
-    <t>Система трекинга задач</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-46</t>
+    <t>CPXxz_ISOKLF317-wNIe-39</t>
+  </si>
+  <si>
+    <t>Database Graphs SOL</t>
+  </si>
+  <si>
+    <t>Neo4J</t>
+  </si>
+  <si>
+    <t>Связи ИС</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-42</t>
+  </si>
+  <si>
+    <t>Enterprise Digital Twin</t>
+  </si>
+  <si>
+    <t>EDT</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-45</t>
   </si>
   <si>
     <t>SAM 2.0</t>
@@ -224,22 +209,118 @@
     <t>Software Asset Management</t>
   </si>
   <si>
-    <t>-_cdvQayPMqrRb-iDRBa-47</t>
-  </si>
-  <si>
-    <t>TEAM</t>
-  </si>
-  <si>
-    <t>Система управления командами</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-26</t>
-  </si>
-  <si>
-    <t>Util SOL</t>
-  </si>
-  <si>
-    <t>Утилита загрузки данных из исходного кода</t>
+    <t>CPXxz_ISOKLF317-wNIe-53</t>
+  </si>
+  <si>
+    <t>PlantUML</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-54</t>
+  </si>
+  <si>
+    <t>Archi</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-60</t>
+  </si>
+  <si>
+    <t>Subscription Manager</t>
+  </si>
+  <si>
+    <t>Kafka Connect</t>
+  </si>
+  <si>
+    <t>Поставщик данных для брокера сообщений</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-63</t>
+  </si>
+  <si>
+    <t>Apache KAFKA</t>
+  </si>
+  <si>
+    <t>Message Broker</t>
+  </si>
+  <si>
+    <t>Управление очередями сообщений</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-67</t>
+  </si>
+  <si>
+    <t>File Storage</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>Хранение артефактов</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-70</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>Сервис безопасный код</t>
+  </si>
+  <si>
+    <t>82SHFymeLyr4183RUL06-1</t>
+  </si>
+  <si>
+    <t>PlugIn Archi</t>
+  </si>
+  <si>
+    <t>Плагин SOL для Archi</t>
+  </si>
+  <si>
+    <t>82SHFymeLyr4183RUL06-3</t>
+  </si>
+  <si>
+    <t>PlugIn PlantUML</t>
+  </si>
+  <si>
+    <t>Плагин SOL для PlantUML</t>
+  </si>
+  <si>
+    <t>8sWbkOlYW6gWS9h92edt-1</t>
+  </si>
+  <si>
+    <t>Confluence</t>
+  </si>
+  <si>
+    <t>8sWbkOlYW6gWS9h92edt-2</t>
+  </si>
+  <si>
+    <t>Плагин SOL для Confluence</t>
+  </si>
+  <si>
+    <t>bkNJ667sq3PJqaErZ2_W-2</t>
+  </si>
+  <si>
+    <t>BackEnd SOL</t>
+  </si>
+  <si>
+    <t>Ядро SOL</t>
+  </si>
+  <si>
+    <t>8gRIIN5burzXCXpj9Azk-1</t>
+  </si>
+  <si>
+    <t>Системы проектирования + плагины SOL</t>
+  </si>
+  <si>
+    <t>Systems + PlugIns</t>
+  </si>
+  <si>
+    <t>2o_60nCjBtP-Sxsz9W5c-1</t>
+  </si>
+  <si>
+    <t>External Systems</t>
+  </si>
+  <si>
+    <t>Потребители реестра ИС</t>
   </si>
   <si>
     <t>source</t>
@@ -248,118 +329,129 @@
     <t>target</t>
   </si>
   <si>
-    <t>-_cdvQayPMqrRb-iDRBa-9</t>
+    <t>CPXxz_ISOKLF317-wNIe-8</t>
   </si>
   <si>
     <t>Relationship</t>
   </si>
   <si>
-    <t>Создание / изменение / просмотр сущностей</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-10</t>
+    <t>Работа с ИС</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-10</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Данные ИС и связи (Entity): ИС и связи</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-23</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-27</t>
   </si>
   <si>
     <t>REST API/HTTPS</t>
   </si>
   <si>
-    <t>Запрос данных (Entity): Cущность</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-17</t>
+    <t>Обновление ИС (SolID): ИС</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-28</t>
+  </si>
+  <si>
+    <t>Powershell</t>
+  </si>
+  <si>
+    <t>CI/CD Proccess ():</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-40</t>
+  </si>
+  <si>
+    <t>Отчетность</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-41</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-50</t>
   </si>
   <si>
     <t>REST API / HTTPS</t>
   </si>
   <si>
-    <t>Проверка прав пользователя (Token): Доступ</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-18</t>
-  </si>
-  <si>
-    <t>Авторизация пользователя (Login): Token</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-19</t>
-  </si>
-  <si>
-    <t>Описание ИС (SolID): Данные</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-20</t>
-  </si>
-  <si>
-    <t>Обновление данных (Product): Продукт</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-28</t>
-  </si>
-  <si>
-    <t>Обновление данных (Entity): Сущность</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-29</t>
-  </si>
-  <si>
-    <t>Powershell</t>
-  </si>
-  <si>
-    <t>CI/CD Proccess</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-30</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-37</t>
-  </si>
-  <si>
-    <t>Проектирование</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-38</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-39</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-41</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>Отчетность</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-48</t>
-  </si>
-  <si>
-    <t>Описание ИС (SolID): Проекты RMS</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-49</t>
-  </si>
-  <si>
-    <t>Описание ИС (SolID): Проекты JIRA</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-50</t>
-  </si>
-  <si>
-    <t>Описание ИС (SolID): Команда продукта</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-51</t>
-  </si>
-  <si>
-    <t>Связи продукта (SolID): Потребление продуктов</t>
-  </si>
-  <si>
-    <t>-_cdvQayPMqrRb-iDRBa-52</t>
+    <t>Описание ИС (SolID):
+Сущности связанные с ИС</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-51</t>
   </si>
   <si>
     <t>Справочник лицензий (): Лицензии</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-61</t>
+  </si>
+  <si>
+    <t>Чтение событий</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-62</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-64</t>
+  </si>
+  <si>
+    <t>Kafka Producer API</t>
+  </si>
+  <si>
+    <t>Событие обновления (Entity): ИС</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-66</t>
+  </si>
+  <si>
+    <t>Kafka Consumer API</t>
+  </si>
+  <si>
+    <t>Получение обновлений (Entity): Сущность</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-68</t>
+  </si>
+  <si>
+    <t>FTPS</t>
+  </si>
+  <si>
+    <t>Обновление артефактов
+(Artifact): Артефакт</t>
+  </si>
+  <si>
+    <t>CPXxz_ISOKLF317-wNIe-71</t>
+  </si>
+  <si>
+    <t>Лицензии и состав ИС (SolID): Технологический стек</t>
+  </si>
+  <si>
+    <t>bkNJ667sq3PJqaErZ2_W-6</t>
+  </si>
+  <si>
+    <t>Запрос данных ИС (SolID): ИC</t>
+  </si>
+  <si>
+    <t>bxaHx9d2JdRXmv54-6Qx-1</t>
+  </si>
+  <si>
+    <t>2IeMq3OnFghWXHHsRmaH-1</t>
+  </si>
+  <si>
+    <t>2o_60nCjBtP-Sxsz9W5c-2</t>
+  </si>
+  <si>
+    <t>2o_60nCjBtP-Sxsz9W5c-3</t>
   </si>
 </sst>
 </file>
@@ -691,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -821,9 +913,9 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -849,38 +941,44 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -891,142 +989,272 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
         <v>22</v>
       </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1036,384 +1264,430 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
       <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
